--- a/DataSource/Clasificación.xlsx
+++ b/DataSource/Clasificación.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgomeza\Documents\Ranorex\Git\IQDocOK\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4234FAE9-CD07-47CD-BAFC-E375DDCFB01F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15DB305-EC01-4E9F-B16A-1FA11700E95E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A7368BEF-E6C2-423D-818D-DBC1F90FEACA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="7">
   <si>
     <t>Producto</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Cuentas Medicas</t>
+  </si>
+  <si>
+    <t>DocumentoId</t>
+  </si>
+  <si>
+    <t>CodClasificacion</t>
   </si>
 </sst>
 </file>
@@ -392,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7229B75E-B50C-4240-A2CD-E212DE6B48F1}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,9 +409,10 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -415,8 +422,14 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -425,7 +438,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -434,7 +447,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -443,7 +456,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -452,7 +465,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -461,7 +474,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -470,7 +483,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -479,7 +492,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -488,7 +501,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -497,7 +510,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -506,7 +519,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -515,7 +528,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -524,7 +537,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -533,7 +546,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -542,7 +555,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
